--- a/hockey.xlsx
+++ b/hockey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangeeth\Desktop\c\Simple  hockey points table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF44A1C8-1AE3-4D54-A990-B7D5B48181A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D962A836-5059-4BAA-AA81-B90BD38735AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
